--- a/Data/parallelOMPI_consolidated_data.xlsx
+++ b/Data/parallelOMPI_consolidated_data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40056761\Documents\SET10108Coursework_2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\SET10108Coursework_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8520" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="parallelOMPI_consolidated_data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -65,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +196,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -544,7 +550,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -590,8 +596,36 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -653,7 +687,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1279,7 +1312,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1401,7 +1433,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1476,7 +1507,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1597,7 +1627,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2228,7 +2257,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2349,7 +2377,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2424,7 +2451,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3997,6 +4023,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4032,6 +4075,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4186,8 +4246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6044,6 +6104,7 @@
     <sortCondition ref="N2:N7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6051,7 +6112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
